--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2664484.722844719</v>
+        <v>2662227.700935636</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>40.62363183383287</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>112.8682054096739</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.787420751036338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>86.88462298447445</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>238.4258463375502</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>236.3937968534094</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>112.2638403784904</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>95.68020095976702</v>
       </c>
       <c r="E8" t="n">
-        <v>60.4617907661316</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702127</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534541</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>35.19569619650002</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.56887637424905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>45.18349897297472</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>43.01165385651008</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840149</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>234.6606904957402</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>214.8467271449446</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>158.8226378576662</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.9321526700473</v>
       </c>
       <c r="S28" t="n">
-        <v>84.69473660442841</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>66.76073360401648</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>270.3808622796249</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>155.71233192964</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>92.51708372137387</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.4425172951283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,13 +3424,13 @@
         <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102223</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5897927156068541</v>
+        <v>95.29616512143258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164182</v>
       </c>
       <c r="S37" t="n">
         <v>188.7127700430364</v>
@@ -3481,16 +3481,16 @@
         <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006317</v>
+        <v>199.1126432438907</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800335</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572827</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128483</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611112</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715037</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>94.97695336969059</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>141.7052272592275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1061.976198199964</v>
+        <v>854.9003034538794</v>
       </c>
       <c r="C5" t="n">
-        <v>1061.976198199964</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>703.7104995932139</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>703.7104995932139</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>292.7245948036063</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4568,7 +4568,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500978</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239898</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264086</v>
+        <v>854.9003034538794</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036446</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>944.461475247921</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>575.4989583075094</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.860007589389</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.7766591279594</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783405</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413798</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433625</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.7766591279594</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>304.0396960664515</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>637.8590697562979</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1088.893283004707</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>637.1336314069201</v>
+        <v>438.2075193111402</v>
       </c>
       <c r="C16" t="n">
-        <v>637.1336314069201</v>
+        <v>438.2075193111402</v>
       </c>
       <c r="D16" t="n">
-        <v>487.0169919945844</v>
+        <v>288.0908798988045</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>288.0908798988045</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>141.2009324008941</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,13 +5437,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799874</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593987</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570261</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X16" t="n">
-        <v>857.9262105504503</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y16" t="n">
-        <v>637.1336314069201</v>
+        <v>619.85598414138</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,10 +5498,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1905.506714936591</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M17" t="n">
-        <v>2439.038619608516</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667298</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736756</v>
+        <v>243.4741280307874</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736756</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736756</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736756</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736756</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454628</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474454</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039153</v>
+        <v>260.904311342304</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307874</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
         <v>95.56103444839442</v>
@@ -5911,49 +5911,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>692.2562580723348</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>464.2667071743175</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>243.4741280307874</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783406</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W25" t="n">
-        <v>619.85598414138</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433626</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998325</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>320.5615857958363</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>654.3809594856828</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,13 +6385,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6625,46 +6625,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208129</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>462.5708003740667</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>241.7782212305366</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>709.686441383852</v>
+        <v>815.8215544597811</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858346</v>
+        <v>815.8215544597811</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>595.0289753162509</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,22 +6935,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>351.3014367967928</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>685.1208104866391</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1549.639626139994</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.189928969822</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N35" t="n">
-        <v>3507.942201196469</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075806</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
         <v>4405.689038432984</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7005,22 +7005,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.15678466617942</v>
+        <v>506.5352145391203</v>
       </c>
       <c r="C37" t="n">
-        <v>96.15678466617942</v>
+        <v>338.6659561449563</v>
       </c>
       <c r="D37" t="n">
-        <v>96.15678466617942</v>
+        <v>338.6659561449563</v>
       </c>
       <c r="E37" t="n">
-        <v>96.15678466617942</v>
+        <v>191.8197870963061</v>
       </c>
       <c r="F37" t="n">
-        <v>96.15678466617942</v>
+        <v>191.8197870963061</v>
       </c>
       <c r="G37" t="n">
-        <v>96.15678466617942</v>
+        <v>191.8197870963061</v>
       </c>
       <c r="H37" t="n">
-        <v>96.15678466617942</v>
+        <v>191.8197870963061</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152491</v>
+        <v>346.7622353152493</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992666</v>
+        <v>664.3677264992671</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7111,34 +7111,34 @@
         <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100838</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988874</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988874</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1464.626824743984</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112099</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439955</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367377</v>
+        <v>888.240636900153</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724634</v>
+        <v>687.116754835617</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.7383249626762</v>
+        <v>687.116754835617</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,22 +7175,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1172.647446689876</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519704</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.515167821504</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932526</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160449</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819759</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,31 +7351,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122055</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195772</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937958</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036704</v>
+        <v>922.7139997036724</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.647446689876</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075806</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215058</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416721</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
         <v>463.8981507430896</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,10 +7591,10 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,22 +7825,22 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
         <v>1276.596863849073</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.154367407183</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>19.79750571619368</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>351.4175304294036</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>410.4190035206678</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>304.7351805999706</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>36.48628322062262</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>36.48628322062268</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>183.0848540075445</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>67.53663776704337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>26.15484791631889</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>104.3976710547484</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,10 +10838,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>17.45080131651065</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>104.3976710547484</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>353.7642348290861</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.73645647354733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>167.0157769778457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>120.8423092860535</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>182.6980015325271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>162.5760987035358</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>51.55114770987265</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.67627119164641</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>30.9463874737757</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>151.8239197480783</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,7 +24853,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>69.99732345939717</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>194.0059146152171</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.14213605696651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>147.5592177298068</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>144.3647927345257</v>
       </c>
       <c r="G37" t="n">
         <v>164.9695529706227</v>
@@ -25330,7 +25330,7 @@
         <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>94.70637240582576</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164186</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>25.54075685674096</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191271</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191271</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792254.3209423951</v>
+        <v>792254.320942395</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
@@ -26320,40 +26320,40 @@
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.769674824</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.769674824</v>
       </c>
       <c r="G2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="H2" t="n">
         <v>615476.7696748234</v>
       </c>
-      <c r="H2" t="n">
-        <v>615476.7696748236</v>
-      </c>
       <c r="I2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="J2" t="n">
         <v>615476.7696748239</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="M2" t="n">
-        <v>615945.1543369084</v>
+        <v>615945.1543369079</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
-        <v>1.929525006959624e-11</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.319069669</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414962</v>
+        <v>36735.10506414965</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.6868571279</v>
@@ -26424,40 +26424,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811456</v>
+        <v>18496.05294811458</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902621</v>
+        <v>-219868.2724902622</v>
       </c>
       <c r="C6" t="n">
         <v>370099.6067242823</v>
@@ -26528,40 +26528,40 @@
         <v>370099.6067242823</v>
       </c>
       <c r="E6" t="n">
-        <v>-226432.6548914863</v>
+        <v>-226499.8503817118</v>
       </c>
       <c r="F6" t="n">
-        <v>500944.7591019205</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="G6" t="n">
-        <v>500944.7591019198</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="H6" t="n">
-        <v>500944.75910192</v>
+        <v>500877.563611694</v>
       </c>
       <c r="I6" t="n">
-        <v>500944.7591019204</v>
+        <v>500877.5636116944</v>
       </c>
       <c r="J6" t="n">
-        <v>324521.5399093273</v>
+        <v>324454.3444191013</v>
       </c>
       <c r="K6" t="n">
-        <v>500944.75910192</v>
+        <v>500877.5636116941</v>
       </c>
       <c r="L6" t="n">
-        <v>500944.7591019199</v>
+        <v>500877.5636116944</v>
       </c>
       <c r="M6" t="n">
-        <v>370489.4657395702</v>
+        <v>370423.7811676085</v>
       </c>
       <c r="N6" t="n">
-        <v>465633.9422691592</v>
+        <v>465633.9422691588</v>
       </c>
       <c r="O6" t="n">
-        <v>502369.0473333089</v>
+        <v>502369.0473333083</v>
       </c>
       <c r="P6" t="n">
-        <v>502369.0473333082</v>
+        <v>502369.0473333081</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.41190625869953e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018702</v>
+        <v>45.91888133018707</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.41190625869953e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>283.2991409305243</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>273.3697332463797</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>171.044559430901</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>80.42517927457646</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>126.8470454334573</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>177.3903731673856</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>174.2591579581006</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>259.0028406609159</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061302</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787158</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405493</v>
+        <v>1.056255288405512</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,10 +34217,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>627.9163536265546</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>210.5845066849062</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>807.0076448217358</v>
+        <v>559.3763608778471</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>962.7208389335791</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>812.7881814881896</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>227.2732841893352</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36759,7 +36759,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
         <v>344.8569461675401</v>
@@ -36768,7 +36768,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
         <v>78.39423853789366</v>
@@ -36835,22 +36835,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>544.5392841088418</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>691.1378548957637</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>258.3236387357559</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>565.0759637465457</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147169</v>
+        <v>46.63467190147173</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586035</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
         <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
         <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629912</v>
+        <v>79.45049382629917</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>559.9877854470803</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>416.2127875358825</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>559.9877854470803</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.9322077637029</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>809.3543492214183</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
